--- a/biology/Mycologie/Amanite_safran/Amanite_safran.xlsx
+++ b/biology/Mycologie/Amanite_safran/Amanite_safran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanita crocea
 Amanita crocea, l'amanite safran, est une espèce de champignons basidiomycètes du genre Amanita de la famille des amanitaceae. Elle faisait partie du sous-genre Amanitopsis (amanites sans anneau) dont l'espèce-type est Amanita vaginata, maintenant section vaginae.
@@ -512,7 +524,9 @@
           <t>Nom binomial accepté</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amanita crocea (Quél.) Singer 1951</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chapeau 4 à 10 cm, convexe puis étalé, jaune orangé, marge striée
 Lames et sporée blanches
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous les feuillus de l'été à l'automne en Europe, relativement peu fréquent.
 </t>
@@ -607,7 +625,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comestible mais à protéger. Serait toxique crue (ne pas confondre avec Amanita caesarea dont les lames sont jaunes).
 </t>
@@ -638,7 +658,9 @@
           <t>Espèces proches</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amanita vaginata
 Amanita fulva</t>
@@ -669,7 +691,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Champignons, Roger Phillips, éditions Solar,  (ISBN 2-263-00640-0)
 Grand guide encyclopédique des champignons, J.L. Lamaison et J.M. Polese, éditions Artémis,  (ISBN 2-84416-005-0)
